--- a/Progressão por Mérito UFGD.xlsx
+++ b/Progressão por Mérito UFGD.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +442,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="9" max="9"/>
   </cols>
@@ -492,246 +495,121 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>342456</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Thiago Aparecido Nogueira Basso</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Novembro2025</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>00001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>r</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
-        <v>1339.26</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="n">
+        <v>371.44</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>406 DE 03/11/2025 PROGESP</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>407 DE 03/11/2025 PROGESP</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>342456</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Thiago Aparecido Nogueira Basso</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Novembro2025</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>00053</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>r</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>232.2</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>406 DE 03/11/2025 PROGESP</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>407 DE 03/11/2025 PROGESP</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>342456</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Thiago Aparecido Nogueira Basso</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Novembro2025</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="2" t="n">
+        <v>82922</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>r</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>401.78</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" s="2" t="n">
+        <v>111.43</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>406 DE 03/11/2025 PROGESP</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>407 DE 03/11/2025 PROGESP</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>346245</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TESTET</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Novembro2025</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1243</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>406 DE 03/11/2025 PROGESP</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>407 DE 03/11/2025 PROGESP</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>346245</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TESTET</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Novembro2025</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>244</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>406 DE 03/11/2025 PROGESP</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>407 DE 03/11/2025 PROGESP</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>346245</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TESTET</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Novembro2025</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>153</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>406 DE 03/11/2025 PROGESP</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>407 DE 03/11/2025 PROGESP</t>
         </is>
